--- a/biology/Zoologie/Conus_gladiator/Conus_gladiator.xlsx
+++ b/biology/Zoologie/Conus_gladiator/Conus_gladiator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus gladiator est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille d'une coquille adulte varie entre 26 mm et 48 mm. La spire est plutôt déprimée, tuberculée et striée. La couleur de la coquille est brun chocolat, panachée de blanc, disposée en stries longitudinales, avec une bande blanche irrégulière, et des lignes tournantes plus ou moins distinctes de brun plus foncé. L'intérieur est blanc ou teinté de chocolat. L'Epiderme (zoologie)|épiderme est fibreux[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille d'une coquille adulte varie entre 26 mm et 48 mm. La spire est plutôt déprimée, tuberculée et striée. La couleur de la coquille est brun chocolat, panachée de blanc, disposée en stries longitudinales, avec une bande blanche irrégulière, et des lignes tournantes plus ou moins distinctes de brun plus foncé. L'intérieur est blanc ou teinté de chocolat. L'Epiderme (zoologie)|épiderme est fibreux.
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans l'océan Pacifique au large des îles Galápagos et du Golfe de Californie au Pérou.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente au large de la côte pacifique de la Baja California, Mexique, jusqu'au nord du Pérou. On la trouve également dans les îles Galápagos, les îles Revillagigedo, l'île Clipperton et les îles Cocos (Tenorio et al. 2012). Cette espèce a une large aire de répartition et ne présente aucune menace connue. Cette espèce est classée dans la catégorie " préoccupation mineure "[2].
 </t>
         </is>
       </c>
@@ -573,21 +587,132 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente au large de la côte pacifique de la Baja California, Mexique, jusqu'au nord du Pérou. On la trouve également dans les îles Galápagos, les îles Revillagigedo, l'île Clipperton et les îles Cocos (Tenorio et al. 2012). Cette espèce a une large aire de répartition et ne présente aucune menace connue. Cette espèce est classée dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_gladiator</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_gladiator</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus gladiator a été décrite pour la première fois en 1833 par le naturaliste britannique William John Broderip (1789-1859) dans la publication intitulée « Proceedings of the Zoological Society of London »[3],[4].
-Synonymes
-Conus (Monteiroconus) gladiator Broderip, 1833 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus gladiator a été décrite pour la première fois en 1833 par le naturaliste britannique William John Broderip (1789-1859) dans la publication intitulée « Proceedings of the Zoological Society of London »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_gladiator</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_gladiator</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Monteiroconus) gladiator Broderip, 1833 · appellation alternative
 Conus cibielii Kiener, 1849 · non accepté
 Conus evelynae G. B. Sowerby III, 1882 · non accepté
 Conus gloynei G. B. Sowerby III, 1881 · non accepté
-Gladioconus gladiator (Broderip, 1833) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus gladiator dans les principales bases sont les suivants :
+Gladioconus gladiator (Broderip, 1833) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_gladiator</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_gladiator</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus gladiator dans les principales bases sont les suivants :
 CoL : XXGS - GBIF : 5193140 - iNaturalist : 328680 - IRMNG : 11101799 - SeaLifeBase : 75349 - TAXREF : 6339 - UICN : 192345 - WoRMS : 428134 - ZOBODAT : 120392 
 </t>
         </is>
